--- a/pds_admin_Ladakh/Backend/Backend/Data_1.xlsx
+++ b/pds_admin_Ladakh/Backend/Backend/Data_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="797">
   <si>
     <t>State Name</t>
   </si>
@@ -2340,10 +2340,19 @@
     <t>Processing</t>
   </si>
   <si>
+    <t>Abcdeiiiii</t>
+  </si>
+  <si>
+    <t>serhggrh</t>
+  </si>
+  <si>
     <t>Kangrimill</t>
   </si>
   <si>
-    <t>Atta Store/Suru Valley RF Mill</t>
+    <t>Atta Storesuru Valley Rf Mill</t>
+  </si>
+  <si>
+    <t>absd@gmail.com</t>
   </si>
   <si>
     <t>Mill1</t>
@@ -2352,25 +2361,46 @@
     <t>Mill2</t>
   </si>
   <si>
+    <t>Null</t>
+  </si>
+  <si>
     <t>Mill</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>34.29133</t>
   </si>
   <si>
     <t>34.398087</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>77.650331</t>
   </si>
   <si>
     <t>75.992401</t>
   </si>
   <si>
+    <t>4555</t>
+  </si>
+  <si>
+    <t>6664545</t>
+  </si>
+  <si>
     <t>60000</t>
   </si>
   <si>
     <t>44535.6</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>3465</t>
   </si>
   <si>
     <t>90000</t>
@@ -13980,7 +14010,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14020,28 +14050,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>774</v>
       </c>
       <c r="D2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="G2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="H2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="I2" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14051,23 +14081,72 @@
       <c r="C3" t="s">
         <v>775</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>6666</v>
+      </c>
+      <c r="F3" t="s">
+        <v>783</v>
+      </c>
+      <c r="G3" t="s">
+        <v>783</v>
+      </c>
+      <c r="H3" t="s">
+        <v>790</v>
+      </c>
+      <c r="I3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D4" t="s">
+        <v>779</v>
+      </c>
+      <c r="E4" t="s">
+        <v>782</v>
+      </c>
+      <c r="F4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G4" t="s">
+        <v>787</v>
+      </c>
+      <c r="H4" t="s">
+        <v>791</v>
+      </c>
+      <c r="I4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>777</v>
       </c>
-      <c r="E3" t="s">
-        <v>778</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D5" t="s">
         <v>780</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E5" t="s">
         <v>782</v>
       </c>
-      <c r="H3" t="s">
-        <v>784</v>
-      </c>
-      <c r="I3" t="s">
-        <v>786</v>
+      <c r="F5" t="s">
+        <v>785</v>
+      </c>
+      <c r="G5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I5" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
